--- a/results-Bjornstad korttidsmodell.xlsx
+++ b/results-Bjornstad korttidsmodell.xlsx
@@ -79,7 +79,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -93,6 +93,13 @@
     </fill>
   </fills>
   <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -115,38 +122,28 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -466,14 +463,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -488,140 +485,140 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="3">
         <v>0</v>
       </c>
       <c r="B2" s="4">
-        <v>0.8108715464045705</v>
+        <v>0.722204928897291</v>
       </c>
       <c r="C2" s="4">
-        <v>-0.7941313723149162</v>
+        <v>-43.36988615825406</v>
       </c>
       <c r="D2" s="4">
-        <v>283404275408486.4</v>
+        <v>5.82421628391869</v>
       </c>
       <c r="E2" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
       <c r="E4" s="4">
-        <v>-0.05922736436637863</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+        <v>0.02456389886663433</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
       <c r="E5" s="4">
-        <v>-0.02187725345699782</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+        <v>-0.03408500346330723</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
       <c r="E6" s="4">
-        <v>0.006660863589265245</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+        <v>0.02588251604147428</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
       <c r="E7" s="4">
-        <v>0.05163463705480009</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+        <v>-0.02325723459913488</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
       <c r="E8" s="4">
-        <v>-0.03630847319456332</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+        <v>0.02315300618103039</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
       <c r="E9" s="4">
-        <v>-0.2032691904527364</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+        <v>0.03258371836706241</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
       <c r="E10" s="4">
-        <v>0.05460561828034341</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+        <v>-0.004991651810649081</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
       <c r="E11" s="4">
-        <v>0.1185111932535352</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+        <v>0.02252822878139184</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
       <c r="E12" s="4">
-        <v>-0.01021893156206681</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+        <v>0.02014288879202215</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
       <c r="E13" s="4">
-        <v>0.008849140023955841</v>
+        <v>0.04682326964014262</v>
       </c>
     </row>
   </sheetData>
